--- a/media/uploads/base_procenka.xlsx
+++ b/media/uploads/base_procenka.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="TDSheet"/>
+    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
-    <t>Detail</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>BuyPrice</t>
-  </si>
-  <si>
-    <t>SalePrice</t>
+    <t>Деталь</t>
+  </si>
+  <si>
+    <t>артикул</t>
+  </si>
+  <si>
+    <t>производитель</t>
+  </si>
+  <si>
+    <t>закупка</t>
+  </si>
+  <si>
+    <t>наценка</t>
   </si>
   <si>
     <t>Бачок расширительный Ossca</t>
@@ -288,10 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="XO Thames"/>
       <family val="2"/>
     </font>
     <font>
@@ -323,6 +322,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -337,63 +343,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -402,6 +380,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -706,629 +687,652 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="0.8621428571428571" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="10" t="s">
+      <c r="G1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="B2" s="6">
         <v>12839</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12">
+      <c r="D2" s="7">
         <v>951</v>
       </c>
-      <c r="F3" s="12">
+      <c r="E2" s="8"/>
+      <c r="F2" s="7">
         <v>1500</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
+      <c r="B3" s="6">
         <v>241019</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12">
+      <c r="D3" s="7">
         <v>2145</v>
       </c>
-      <c r="F4" s="12">
+      <c r="E3" s="8"/>
+      <c r="F3" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="10" t="s">
+      <c r="G3" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
+      <c r="D4" s="7">
         <v>102</v>
       </c>
-      <c r="F5" s="12">
+      <c r="E4" s="8"/>
+      <c r="F4" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="G4" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="12">
+      <c r="D5" s="7">
         <v>166</v>
       </c>
-      <c r="F6" s="12">
+      <c r="E5" s="8"/>
+      <c r="F5" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
+      <c r="G5" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12">
+      <c r="D6" s="7">
         <v>998</v>
       </c>
-      <c r="F7" s="12">
+      <c r="E6" s="8"/>
+      <c r="F6" s="7">
         <v>2000</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
+      <c r="G6" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12">
+      <c r="D7" s="7">
         <v>895</v>
       </c>
-      <c r="F8" s="12">
+      <c r="E7" s="8"/>
+      <c r="F7" s="7">
         <v>1500</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
+      <c r="G7" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12">
+      <c r="D8" s="7">
         <v>1998</v>
       </c>
-      <c r="F9" s="12">
+      <c r="E8" s="8"/>
+      <c r="F8" s="7">
         <v>2900</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
+      <c r="G8" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="12">
+      <c r="D9" s="7">
         <v>133</v>
       </c>
-      <c r="F10" s="12">
+      <c r="E9" s="8"/>
+      <c r="F9" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
+      <c r="G9" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="12">
+      <c r="D10" s="7">
         <v>133</v>
       </c>
-      <c r="F11" s="12">
+      <c r="E10" s="8"/>
+      <c r="F10" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
+      <c r="G10" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="12">
+      <c r="D11" s="7">
         <v>1420</v>
       </c>
-      <c r="F12" s="12">
+      <c r="E11" s="8"/>
+      <c r="F11" s="7">
         <v>1950</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
+      <c r="G11" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="12">
+      <c r="D12" s="7">
         <v>1072</v>
       </c>
-      <c r="F13" s="12">
+      <c r="E12" s="8"/>
+      <c r="F12" s="7">
         <v>1600</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
+      <c r="G12" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="12">
+      <c r="D13" s="7">
         <v>2242</v>
       </c>
-      <c r="F14" s="12">
+      <c r="E13" s="8"/>
+      <c r="F13" s="7">
         <v>3250</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="10" t="s">
+      <c r="G13" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="12">
+      <c r="D14" s="7">
         <v>205</v>
       </c>
-      <c r="F15" s="12">
+      <c r="E14" s="8"/>
+      <c r="F14" s="7">
         <v>350</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
+      <c r="G14" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11">
+      <c r="B15" s="6">
         <v>1781617</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="12">
+      <c r="D15" s="7">
         <v>2910</v>
       </c>
-      <c r="F16" s="12">
+      <c r="E15" s="8"/>
+      <c r="F15" s="7">
         <v>4800</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="10" t="s">
+      <c r="G15" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="12">
+      <c r="D16" s="7">
         <v>147</v>
       </c>
-      <c r="F17" s="12">
+      <c r="E16" s="8"/>
+      <c r="F16" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="10" t="s">
+      <c r="G16" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="12">
+      <c r="D17" s="7">
         <v>328</v>
       </c>
-      <c r="F18" s="12">
+      <c r="E17" s="8"/>
+      <c r="F17" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="10" t="s">
+      <c r="G17" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="12">
+      <c r="D18" s="7">
         <v>531</v>
       </c>
-      <c r="F19" s="12">
+      <c r="E18" s="8"/>
+      <c r="F18" s="7">
         <v>800</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="10" t="s">
+      <c r="G18" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="11">
+      <c r="B19" s="6">
         <v>22285</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="C19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="12">
+      <c r="D19" s="7">
         <v>3162</v>
       </c>
-      <c r="F20" s="12">
+      <c r="E19" s="8"/>
+      <c r="F19" s="7">
         <v>4600</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="10" t="s">
+      <c r="G19" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="B20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="C20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="12">
+      <c r="D20" s="7">
         <v>970</v>
       </c>
-      <c r="F21" s="12">
+      <c r="E20" s="8"/>
+      <c r="F20" s="7">
         <v>1500</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="10" t="s">
+      <c r="G20" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+      <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="B21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="12">
+      <c r="D21" s="7">
         <v>1636</v>
       </c>
-      <c r="F22" s="12">
+      <c r="E21" s="8"/>
+      <c r="F21" s="7">
         <v>2500</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="10" t="s">
+      <c r="G21" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+      <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="B22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="C22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="12">
+      <c r="D22" s="7">
         <v>2714.42</v>
       </c>
-      <c r="F23" s="12">
+      <c r="E22" s="8"/>
+      <c r="F22" s="7">
         <v>4250</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="10" t="s">
+      <c r="G22" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="B23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="12">
+      <c r="D23" s="7">
         <v>5223</v>
       </c>
-      <c r="F24" s="12">
+      <c r="E23" s="8"/>
+      <c r="F23" s="7">
         <v>7500</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="10" t="s">
+      <c r="G23" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="B24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="12">
+      <c r="D24" s="7">
         <v>240</v>
       </c>
-      <c r="F25" s="12">
+      <c r="E24" s="8"/>
+      <c r="F24" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="10" t="s">
+      <c r="G24" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="A25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="B25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="C25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="12">
+      <c r="D25" s="7">
         <v>45</v>
       </c>
-      <c r="F26" s="12">
+      <c r="E25" s="8"/>
+      <c r="F25" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="10" t="s">
+      <c r="G25" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="B26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="C26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="12">
+      <c r="D26" s="7">
         <v>277</v>
       </c>
-      <c r="F27" s="12">
+      <c r="E26" s="8"/>
+      <c r="F26" s="7">
         <v>500</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="10" t="s">
+      <c r="G26" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="B27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="C27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="12">
+      <c r="D27" s="7">
         <v>16829</v>
       </c>
-      <c r="F28" s="12">
+      <c r="E27" s="8"/>
+      <c r="F27" s="7">
         <v>23000</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="10" t="s">
+      <c r="G27" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="B28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="C28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="12">
+      <c r="D28" s="7">
         <v>1079</v>
       </c>
-      <c r="F29" s="12">
+      <c r="E28" s="8"/>
+      <c r="F28" s="7">
         <v>2200</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="10" t="s">
+      <c r="G28" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="B29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="C29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="12">
+      <c r="D29" s="7">
         <v>895</v>
       </c>
-      <c r="F30" s="12">
+      <c r="E29" s="8"/>
+      <c r="F29" s="7">
         <v>1300</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="10" t="s">
+      <c r="G29" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+      <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="B30" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="C30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="12">
+      <c r="D30" s="7">
         <v>3749</v>
       </c>
-      <c r="F31" s="12">
+      <c r="E30" s="8"/>
+      <c r="F30" s="7">
         <v>5700</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="10" t="s">
+      <c r="G30" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+      <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="C31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="12">
+      <c r="D31" s="7">
         <v>1761</v>
       </c>
-      <c r="F32" s="12">
+      <c r="E31" s="8"/>
+      <c r="F31" s="7">
         <v>2500</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="10" t="s">
+      <c r="G31" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+      <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="B32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="C32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="12">
+      <c r="D32" s="7">
         <v>232</v>
       </c>
-      <c r="F33" s="12">
+      <c r="E32" s="8"/>
+      <c r="F32" s="7">
         <v>350</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="10" t="s">
+      <c r="G32" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+      <c r="A33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="11">
+      <c r="B33" s="6">
         <v>2601136</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="C33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="12">
+      <c r="D33" s="7">
         <v>545</v>
       </c>
-      <c r="F34" s="12">
+      <c r="E33" s="8"/>
+      <c r="F33" s="7">
         <v>850</v>
       </c>
+      <c r="G33" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
